--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adm-Ramp3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adm-Ramp3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Adm</t>
+  </si>
+  <si>
+    <t>Ramp3</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Adm</t>
-  </si>
-  <si>
-    <t>Ramp3</t>
   </si>
 </sst>
 </file>
@@ -537,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.600084</v>
+        <v>11.43620533333333</v>
       </c>
       <c r="H2">
-        <v>37.800252</v>
+        <v>34.308616</v>
       </c>
       <c r="I2">
-        <v>0.4109984227877578</v>
+        <v>0.3907515546611098</v>
       </c>
       <c r="J2">
-        <v>0.4109984227877578</v>
+        <v>0.3907515546611098</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.111715</v>
+        <v>0.02497633333333333</v>
       </c>
       <c r="N2">
-        <v>0.335145</v>
+        <v>0.074929</v>
       </c>
       <c r="O2">
-        <v>0.391412504598567</v>
+        <v>0.4739851849977543</v>
       </c>
       <c r="P2">
-        <v>0.391412504598567</v>
+        <v>0.4739851849977543</v>
       </c>
       <c r="Q2">
-        <v>1.40761838406</v>
+        <v>0.2856344764737778</v>
       </c>
       <c r="R2">
-        <v>12.66856545654</v>
+        <v>2.570710288264</v>
       </c>
       <c r="S2">
-        <v>0.160869922049417</v>
+        <v>0.1852104479242063</v>
       </c>
       <c r="T2">
-        <v>0.160869922049417</v>
+        <v>0.1852104479242063</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.600084</v>
+        <v>11.43620533333333</v>
       </c>
       <c r="H3">
-        <v>37.800252</v>
+        <v>34.308616</v>
       </c>
       <c r="I3">
-        <v>0.4109984227877578</v>
+        <v>0.3907515546611098</v>
       </c>
       <c r="J3">
-        <v>0.4109984227877578</v>
+        <v>0.3907515546611098</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,28 +620,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.1737</v>
+        <v>0.027718</v>
       </c>
       <c r="N3">
-        <v>0.5211</v>
+        <v>0.08315400000000001</v>
       </c>
       <c r="O3">
-        <v>0.6085874954014331</v>
+        <v>0.5260148150022457</v>
       </c>
       <c r="P3">
-        <v>0.6085874954014331</v>
+        <v>0.5260148150022457</v>
       </c>
       <c r="Q3">
-        <v>2.1886345908</v>
+        <v>0.3169887394293334</v>
       </c>
       <c r="R3">
-        <v>19.6977113172</v>
+        <v>2.852898654864</v>
       </c>
       <c r="S3">
-        <v>0.2501285007383408</v>
+        <v>0.2055411067369036</v>
       </c>
       <c r="T3">
-        <v>0.2501285007383408</v>
+        <v>0.2055411067369036</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.59249933333334</v>
+        <v>17.59249933333333</v>
       </c>
       <c r="H4">
-        <v>52.77749800000001</v>
+        <v>52.77749799999999</v>
       </c>
       <c r="I4">
-        <v>0.573844545710543</v>
+        <v>0.6010994262964036</v>
       </c>
       <c r="J4">
-        <v>0.573844545710543</v>
+        <v>0.6010994262964036</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.111715</v>
+        <v>0.02497633333333333</v>
       </c>
       <c r="N4">
-        <v>0.335145</v>
+        <v>0.074929</v>
       </c>
       <c r="O4">
-        <v>0.391412504598567</v>
+        <v>0.4739851849977543</v>
       </c>
       <c r="P4">
-        <v>0.391412504598567</v>
+        <v>0.4739851849977543</v>
       </c>
       <c r="Q4">
-        <v>1.965346063023333</v>
+        <v>0.4393961275157778</v>
       </c>
       <c r="R4">
-        <v>17.68811456721</v>
+        <v>3.954565147641999</v>
       </c>
       <c r="S4">
-        <v>0.2246099308867905</v>
+        <v>0.2849122227751448</v>
       </c>
       <c r="T4">
-        <v>0.2246099308867905</v>
+        <v>0.2849122227751448</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +717,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.59249933333334</v>
+        <v>17.59249933333333</v>
       </c>
       <c r="H5">
-        <v>52.77749800000001</v>
+        <v>52.77749799999999</v>
       </c>
       <c r="I5">
-        <v>0.573844545710543</v>
+        <v>0.6010994262964036</v>
       </c>
       <c r="J5">
-        <v>0.573844545710543</v>
+        <v>0.6010994262964036</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +744,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1737</v>
+        <v>0.027718</v>
       </c>
       <c r="N5">
-        <v>0.5211</v>
+        <v>0.08315400000000001</v>
       </c>
       <c r="O5">
-        <v>0.6085874954014331</v>
+        <v>0.5260148150022457</v>
       </c>
       <c r="P5">
-        <v>0.6085874954014331</v>
+        <v>0.5260148150022457</v>
       </c>
       <c r="Q5">
-        <v>3.0558171342</v>
+        <v>0.4876288965213333</v>
       </c>
       <c r="R5">
-        <v>27.5023542078</v>
+        <v>4.388660068691999</v>
       </c>
       <c r="S5">
-        <v>0.3492346148237526</v>
+        <v>0.3161872035212587</v>
       </c>
       <c r="T5">
-        <v>0.3492346148237526</v>
+        <v>0.3161872035212587</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,22 +782,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.02822</v>
+        <v>0.217234</v>
       </c>
       <c r="H6">
-        <v>0.08466</v>
+        <v>0.651702</v>
       </c>
       <c r="I6">
-        <v>0.0009204998546891055</v>
+        <v>0.007422437841146218</v>
       </c>
       <c r="J6">
-        <v>0.0009204998546891056</v>
+        <v>0.007422437841146218</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.111715</v>
+        <v>0.02497633333333333</v>
       </c>
       <c r="N6">
-        <v>0.335145</v>
+        <v>0.074929</v>
       </c>
       <c r="O6">
-        <v>0.391412504598567</v>
+        <v>0.4739851849977543</v>
       </c>
       <c r="P6">
-        <v>0.391412504598567</v>
+        <v>0.4739851849977543</v>
       </c>
       <c r="Q6">
-        <v>0.0031525973</v>
+        <v>0.005425708795333333</v>
       </c>
       <c r="R6">
-        <v>0.0283733757</v>
+        <v>0.048831379158</v>
       </c>
       <c r="S6">
-        <v>0.0003602951536064798</v>
+        <v>0.003518125573270023</v>
       </c>
       <c r="T6">
-        <v>0.0003602951536064798</v>
+        <v>0.003518125573270023</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,25 +841,25 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.02822</v>
+        <v>0.217234</v>
       </c>
       <c r="H7">
-        <v>0.08466</v>
+        <v>0.651702</v>
       </c>
       <c r="I7">
-        <v>0.0009204998546891055</v>
+        <v>0.007422437841146218</v>
       </c>
       <c r="J7">
-        <v>0.0009204998546891056</v>
+        <v>0.007422437841146218</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -865,28 +868,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.1737</v>
+        <v>0.027718</v>
       </c>
       <c r="N7">
-        <v>0.5211</v>
+        <v>0.08315400000000001</v>
       </c>
       <c r="O7">
-        <v>0.6085874954014331</v>
+        <v>0.5260148150022457</v>
       </c>
       <c r="P7">
-        <v>0.6085874954014331</v>
+        <v>0.5260148150022457</v>
       </c>
       <c r="Q7">
-        <v>0.004901813999999999</v>
+        <v>0.006021292012000001</v>
       </c>
       <c r="R7">
-        <v>0.044116326</v>
+        <v>0.054191628108</v>
       </c>
       <c r="S7">
-        <v>0.0005602047010826258</v>
+        <v>0.003904312267876196</v>
       </c>
       <c r="T7">
-        <v>0.0005602047010826259</v>
+        <v>0.003904312267876196</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,22 +906,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.436453</v>
+        <v>0.021265</v>
       </c>
       <c r="H8">
-        <v>1.309359</v>
+        <v>0.063795</v>
       </c>
       <c r="I8">
-        <v>0.01423653164701007</v>
+        <v>0.0007265812013403718</v>
       </c>
       <c r="J8">
-        <v>0.01423653164701007</v>
+        <v>0.0007265812013403719</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -927,28 +930,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.111715</v>
+        <v>0.02497633333333333</v>
       </c>
       <c r="N8">
-        <v>0.335145</v>
+        <v>0.074929</v>
       </c>
       <c r="O8">
-        <v>0.391412504598567</v>
+        <v>0.4739851849977543</v>
       </c>
       <c r="P8">
-        <v>0.391412504598567</v>
+        <v>0.4739851849977543</v>
       </c>
       <c r="Q8">
-        <v>0.048758346895</v>
+        <v>0.0005311217283333334</v>
       </c>
       <c r="R8">
-        <v>0.438825122055</v>
+        <v>0.004780095555</v>
       </c>
       <c r="S8">
-        <v>0.005572356508752974</v>
+        <v>0.0003443887251332067</v>
       </c>
       <c r="T8">
-        <v>0.005572356508752976</v>
+        <v>0.0003443887251332068</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,25 +965,25 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.436453</v>
+        <v>0.021265</v>
       </c>
       <c r="H9">
-        <v>1.309359</v>
+        <v>0.063795</v>
       </c>
       <c r="I9">
-        <v>0.01423653164701007</v>
+        <v>0.0007265812013403718</v>
       </c>
       <c r="J9">
-        <v>0.01423653164701007</v>
+        <v>0.0007265812013403719</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +992,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.1737</v>
+        <v>0.027718</v>
       </c>
       <c r="N9">
-        <v>0.5211</v>
+        <v>0.08315400000000001</v>
       </c>
       <c r="O9">
-        <v>0.6085874954014331</v>
+        <v>0.5260148150022457</v>
       </c>
       <c r="P9">
-        <v>0.6085874954014331</v>
+        <v>0.5260148150022457</v>
       </c>
       <c r="Q9">
-        <v>0.0758118861</v>
+        <v>0.0005894232700000002</v>
       </c>
       <c r="R9">
-        <v>0.6823069749000001</v>
+        <v>0.005304809430000001</v>
       </c>
       <c r="S9">
-        <v>0.008664175138257098</v>
+        <v>0.0003821924762071651</v>
       </c>
       <c r="T9">
-        <v>0.0086641751382571</v>
+        <v>0.0003821924762071651</v>
       </c>
     </row>
   </sheetData>
